--- a/cases/demos/D3 - multi hub net.xlsx
+++ b/cases/demos/D3 - multi hub net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="2160" windowHeight="1215"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="2160" windowHeight="1215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -1942,6 +1942,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2283,11 +2284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119655040"/>
-        <c:axId val="104394752"/>
+        <c:axId val="113171072"/>
+        <c:axId val="113381760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119655040"/>
+        <c:axId val="113171072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,12 +2298,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104394752"/>
+        <c:crossAx val="113381760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104394752"/>
+        <c:axId val="113381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,13 +2314,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119655040"/>
+        <c:crossAx val="113171072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2349,6 +2351,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2690,11 +2693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104796928"/>
-        <c:axId val="104798464"/>
+        <c:axId val="113968256"/>
+        <c:axId val="113969792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104796928"/>
+        <c:axId val="113968256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,12 +2707,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104798464"/>
+        <c:crossAx val="113969792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104798464"/>
+        <c:axId val="113969792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,13 +2723,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104796928"/>
+        <c:crossAx val="113968256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3098,8 +3102,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3173,7 +3177,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3357,7 +3363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5376,7 +5382,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
